--- a/data/trans_orig/P6709-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12202</v>
+        <v>12494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31783</v>
+        <v>31346</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07488335473451883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0455445700352469</v>
+        <v>0.04663249054419743</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.118631104520396</v>
+        <v>0.1170014057088351</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -763,19 +763,19 @@
         <v>13069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6842</v>
+        <v>6994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21726</v>
+        <v>23271</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08152686747902418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04268122427640549</v>
+        <v>0.04363163695666921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1355371766403668</v>
+        <v>0.1451716347097356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -784,19 +784,19 @@
         <v>33131</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24269</v>
+        <v>23821</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48624</v>
+        <v>46656</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07737030069678665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05667614589881947</v>
+        <v>0.05562865188812188</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1135508313018119</v>
+        <v>0.1089550327995144</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>18923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11676</v>
+        <v>11522</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28780</v>
+        <v>28804</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07063205427748862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0435793921344242</v>
+        <v>0.04300544530411624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1074227368289985</v>
+        <v>0.1075101910324127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -834,19 +834,19 @@
         <v>10607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5461</v>
+        <v>4985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20106</v>
+        <v>19672</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06616748347678732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03407017027934842</v>
+        <v>0.03109931839079719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1254319111966891</v>
+        <v>0.1227210086301486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -855,19 +855,19 @@
         <v>29530</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20420</v>
+        <v>19892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42482</v>
+        <v>41939</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06896077783789031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04768567642018602</v>
+        <v>0.04645371383508232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09920727286360324</v>
+        <v>0.09793867162117052</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>47045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34888</v>
+        <v>35763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59193</v>
+        <v>59629</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.175594892053971</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1302185402975556</v>
+        <v>0.1334866102178713</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2209378483338672</v>
+        <v>0.2225659111567074</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -905,19 +905,19 @@
         <v>31328</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22244</v>
+        <v>21976</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41537</v>
+        <v>42002</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1954367671479313</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1387684095298234</v>
+        <v>0.1370918311022213</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2591207896655118</v>
+        <v>0.2620257250312304</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -926,19 +926,19 @@
         <v>78373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62926</v>
+        <v>63550</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95278</v>
+        <v>95680</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1830225396022593</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1469495541204402</v>
+        <v>0.1484067428367895</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2225020709393656</v>
+        <v>0.2234412534395404</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>66670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53563</v>
+        <v>53242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83256</v>
+        <v>81158</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2488469523390356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1999253081593764</v>
+        <v>0.1987272400753314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3107558102233469</v>
+        <v>0.3029257967998935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -976,19 +976,19 @@
         <v>41307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30422</v>
+        <v>30330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53646</v>
+        <v>52321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2576915827545915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1897853641833396</v>
+        <v>0.1892077107208791</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3346612929212378</v>
+        <v>0.3263990991627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -997,19 +997,19 @@
         <v>107977</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90692</v>
+        <v>89677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126049</v>
+        <v>126518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2521578691304439</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2117916166171092</v>
+        <v>0.2094212207646559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2943605295867968</v>
+        <v>0.2954557308658449</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>115215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>98738</v>
+        <v>99748</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>130394</v>
+        <v>132290</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4300427465949859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3685410473308837</v>
+        <v>0.3723125547936857</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4866984007254952</v>
+        <v>0.493777141443155</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -1047,19 +1047,19 @@
         <v>63987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52079</v>
+        <v>51879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77074</v>
+        <v>78166</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3991772991416657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3248872988503343</v>
+        <v>0.3236386667952984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4808184245878898</v>
+        <v>0.4876286668008433</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>172</v>
@@ -1068,19 +1068,19 @@
         <v>179202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>157851</v>
+        <v>159992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>197992</v>
+        <v>199882</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4184885127326199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.368626531719262</v>
+        <v>0.3736263749583879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4623681890566703</v>
+        <v>0.466782115473857</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>25124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16143</v>
+        <v>15681</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37533</v>
+        <v>36858</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06132691034867022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03940584989170404</v>
+        <v>0.03827819250392028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0916195123321179</v>
+        <v>0.08996976097407088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1193,19 +1193,19 @@
         <v>22455</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14052</v>
+        <v>14567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33702</v>
+        <v>34640</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08370619281089749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05238321203982455</v>
+        <v>0.05430120802578194</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1256296985680751</v>
+        <v>0.1291278957919009</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1214,19 +1214,19 @@
         <v>47579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35040</v>
+        <v>33541</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64940</v>
+        <v>62428</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07018255808468978</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05168636039819485</v>
+        <v>0.0494760030973893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09579129348350653</v>
+        <v>0.09208651708624957</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>27676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18300</v>
+        <v>18269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39244</v>
+        <v>40038</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06755727708905604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04466948565462076</v>
+        <v>0.04459521461889891</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09579376291786054</v>
+        <v>0.09773249550463857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -1264,19 +1264,19 @@
         <v>23437</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15394</v>
+        <v>14881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35572</v>
+        <v>33848</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08736799923336963</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05738515167170834</v>
+        <v>0.05547209613287824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1326017726541348</v>
+        <v>0.126177065154318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -1285,19 +1285,19 @@
         <v>51113</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37983</v>
+        <v>38456</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>67233</v>
+        <v>67022</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07539652649315615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05602804681526659</v>
+        <v>0.05672605517995165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09917474209244678</v>
+        <v>0.09886371383440269</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>81749</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65809</v>
+        <v>65991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99826</v>
+        <v>100308</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1995489635833684</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1606409596466774</v>
+        <v>0.161085317765816</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.24367477700787</v>
+        <v>0.2448537154179186</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -1335,19 +1335,19 @@
         <v>51271</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38100</v>
+        <v>38481</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66253</v>
+        <v>66402</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1911217971677329</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1420271850246976</v>
+        <v>0.1434475847635606</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2469727248263632</v>
+        <v>0.247527028967066</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>124</v>
@@ -1356,19 +1356,19 @@
         <v>133019</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>114713</v>
+        <v>112695</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154977</v>
+        <v>156131</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1962142714494431</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1692114401940336</v>
+        <v>0.1662349114144101</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2286034163047399</v>
+        <v>0.2303067355395408</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>108299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89970</v>
+        <v>89404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128152</v>
+        <v>130098</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2643580736004544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2196165661710568</v>
+        <v>0.218236403007188</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3128204502583571</v>
+        <v>0.3175692786720909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1406,19 +1406,19 @@
         <v>56506</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44165</v>
+        <v>43184</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71765</v>
+        <v>71687</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2106366442793224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.164635466539609</v>
+        <v>0.1609790653495837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2675207683819298</v>
+        <v>0.267228530310141</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -1427,19 +1427,19 @@
         <v>164804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141082</v>
+        <v>143366</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187507</v>
+        <v>188373</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2431001063378136</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2081072037691757</v>
+        <v>0.2114774209864576</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2765886138820951</v>
+        <v>0.2778655174261289</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>166820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>144573</v>
+        <v>148002</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>188849</v>
+        <v>190749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.407208775378451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3529039178461683</v>
+        <v>0.3612738155084501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4609822409653541</v>
+        <v>0.4656205751541279</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -1477,19 +1477,19 @@
         <v>114592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97241</v>
+        <v>99863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132208</v>
+        <v>133203</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4271673665086775</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3624848248237696</v>
+        <v>0.3722622724977704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4928336038099292</v>
+        <v>0.4965407095109362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>258</v>
@@ -1498,19 +1498,19 @@
         <v>281412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>252834</v>
+        <v>253537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>305318</v>
+        <v>308516</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4151065376348974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3729509636808246</v>
+        <v>0.3739885292620691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4503696348093987</v>
+        <v>0.4550862675484891</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>22629</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14186</v>
+        <v>13899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34634</v>
+        <v>34826</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07082019567989768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04439740215161565</v>
+        <v>0.04349849073607024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1083932192331856</v>
+        <v>0.108992119013084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1623,19 +1623,19 @@
         <v>21374</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14182</v>
+        <v>13564</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32231</v>
+        <v>30992</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.100224139266097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06649988942333407</v>
+        <v>0.06359968978482114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1511302976293298</v>
+        <v>0.1453213324626843</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1644,19 +1644,19 @@
         <v>44003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32128</v>
+        <v>31596</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59950</v>
+        <v>59719</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08258996520903766</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06030060873893549</v>
+        <v>0.05930296746833127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1125217121290858</v>
+        <v>0.1120872057755347</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>25244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16567</v>
+        <v>16441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36601</v>
+        <v>36248</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07900488726400159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05184892941452897</v>
+        <v>0.05145531636184345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1145468520092998</v>
+        <v>0.113443076004732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1694,19 +1694,19 @@
         <v>7087</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2922</v>
+        <v>2823</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14741</v>
+        <v>14716</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03323043569343456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01370062383625303</v>
+        <v>0.01323808468859141</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06912218381860279</v>
+        <v>0.069004095438731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -1715,19 +1715,19 @@
         <v>32331</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22262</v>
+        <v>22102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44464</v>
+        <v>44984</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06068235363075054</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04178356783992813</v>
+        <v>0.04148452593366944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0834549316580451</v>
+        <v>0.084431048211782</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>58286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44271</v>
+        <v>44047</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75848</v>
+        <v>75387</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1824158499902623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1385535816369056</v>
+        <v>0.1378511238086896</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2373788346802528</v>
+        <v>0.235935890547688</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -1765,19 +1765,19 @@
         <v>44078</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32623</v>
+        <v>31470</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59239</v>
+        <v>58210</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2066845790587153</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1529709676486937</v>
+        <v>0.1475621340739216</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2777718977130001</v>
+        <v>0.2729479921275998</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>89</v>
@@ -1786,19 +1786,19 @@
         <v>102365</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>84636</v>
+        <v>83657</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124386</v>
+        <v>124106</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1921301030142987</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1588547918732292</v>
+        <v>0.157016869766748</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2334625983657242</v>
+        <v>0.2329374052042192</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>67900</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54181</v>
+        <v>54485</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84409</v>
+        <v>84958</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2125029198145925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1695668177461346</v>
+        <v>0.1705191859198397</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2641717993291989</v>
+        <v>0.2658899385111246</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1836,19 +1836,19 @@
         <v>46729</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34895</v>
+        <v>34991</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60457</v>
+        <v>59940</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2191148014279825</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1636212706255809</v>
+        <v>0.1640740752526656</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2834857551879119</v>
+        <v>0.2810598851090025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -1857,19 +1857,19 @@
         <v>114629</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95866</v>
+        <v>94555</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135515</v>
+        <v>134610</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2151495145652396</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1799323173044192</v>
+        <v>0.177471762753395</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2543502708292772</v>
+        <v>0.2526507578992373</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>145466</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126915</v>
+        <v>127835</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162862</v>
+        <v>165504</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.455256147251246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3971977377351683</v>
+        <v>0.4000778250258969</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5096996908322011</v>
+        <v>0.5179690424811082</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -1907,19 +1907,19 @@
         <v>93995</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78947</v>
+        <v>79553</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109676</v>
+        <v>109607</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4407460445537706</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3701857220258146</v>
+        <v>0.3730273520093584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5142711914249523</v>
+        <v>0.5139475216233802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>215</v>
@@ -1928,19 +1928,19 @@
         <v>239461</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213173</v>
+        <v>215538</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>263343</v>
+        <v>263565</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4494480635806736</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4001076166646216</v>
+        <v>0.404547414622608</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4942732701233174</v>
+        <v>0.4946889107246257</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>29787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19925</v>
+        <v>20413</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42522</v>
+        <v>41616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07198001667109512</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0481468364026685</v>
+        <v>0.04932647795942246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.102753305515568</v>
+        <v>0.1005623346476357</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2053,19 +2053,19 @@
         <v>34149</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23604</v>
+        <v>23354</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46152</v>
+        <v>46716</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1154883880614983</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07982798499474392</v>
+        <v>0.07898235232222402</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1560824888071523</v>
+        <v>0.1579887327668325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -2074,19 +2074,19 @@
         <v>63936</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49615</v>
+        <v>49361</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82904</v>
+        <v>80454</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09011194978862851</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06992729104408285</v>
+        <v>0.06956924795146817</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1168451162408242</v>
+        <v>0.1133926396403723</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>27323</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18276</v>
+        <v>16947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39437</v>
+        <v>39810</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06602519671531229</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04416235166280665</v>
+        <v>0.04095080720134288</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09529658410485708</v>
+        <v>0.09619964907491807</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -2124,19 +2124,19 @@
         <v>27116</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17605</v>
+        <v>18063</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38208</v>
+        <v>37721</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09170458668609974</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05954032702489248</v>
+        <v>0.06108790370902922</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.129215180766581</v>
+        <v>0.1275697021202998</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>50</v>
@@ -2145,19 +2145,19 @@
         <v>54439</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41424</v>
+        <v>40763</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>71185</v>
+        <v>70393</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07672697585733916</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05838390274398515</v>
+        <v>0.05745228879188057</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1003284977929384</v>
+        <v>0.09921261603076907</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>108129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>88600</v>
+        <v>92371</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>127396</v>
+        <v>128217</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2612888559510684</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2140969614468689</v>
+        <v>0.223210732496514</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3078467922467331</v>
+        <v>0.3098290677447218</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -2195,19 +2195,19 @@
         <v>69558</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55409</v>
+        <v>54061</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85092</v>
+        <v>85334</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2352405946266244</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1873887447723334</v>
+        <v>0.1828302539572347</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.287775257278645</v>
+        <v>0.2885944930411464</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>167</v>
@@ -2216,19 +2216,19 @@
         <v>177687</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>156925</v>
+        <v>156169</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>203499</v>
+        <v>201054</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2504333512040663</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2211709140716</v>
+        <v>0.2201048454217509</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2868120773069009</v>
+        <v>0.2833670404147123</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>113413</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94761</v>
+        <v>96282</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132678</v>
+        <v>130887</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.27405793338595</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2289845661828947</v>
+        <v>0.2326613692703907</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.320608926221928</v>
+        <v>0.3162827838052641</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2266,19 +2266,19 @@
         <v>64376</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50676</v>
+        <v>51533</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78575</v>
+        <v>78931</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2177156820923287</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1713830449322458</v>
+        <v>0.1742809941909544</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2657363160671412</v>
+        <v>0.2669400251598436</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>179</v>
@@ -2287,19 +2287,19 @@
         <v>177790</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>154465</v>
+        <v>153935</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>199501</v>
+        <v>202263</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.250577534108754</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2177039001834946</v>
+        <v>0.2169573772685871</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.281177434097364</v>
+        <v>0.2850708562185372</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>135177</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>117615</v>
+        <v>117256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>155032</v>
+        <v>156268</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3266479972765742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2842109900437868</v>
+        <v>0.2833428289070209</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3746273263759337</v>
+        <v>0.3776149199799251</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>97</v>
@@ -2337,19 +2337,19 @@
         <v>100490</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85516</v>
+        <v>84973</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119331</v>
+        <v>117534</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3398507485334488</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2892077972795082</v>
+        <v>0.2873742567412124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4035684685546649</v>
+        <v>0.3974921738817867</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>225</v>
@@ -2358,19 +2358,19 @@
         <v>235667</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>211596</v>
+        <v>211689</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>260082</v>
+        <v>261231</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.332150189041212</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2982246226236944</v>
+        <v>0.2983551557046714</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3665603118214437</v>
+        <v>0.3681806162791839</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>97602</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>79159</v>
+        <v>78069</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>118892</v>
+        <v>121450</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06917551775173501</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0561036718765112</v>
+        <v>0.05533122847651262</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0842642257905767</v>
+        <v>0.08607765889398324</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -2483,19 +2483,19 @@
         <v>91047</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74807</v>
+        <v>75348</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>111646</v>
+        <v>112462</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09711506613025163</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0797932107809379</v>
+        <v>0.08037035407623977</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1190879168433986</v>
+        <v>0.1199578275032983</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>172</v>
@@ -2504,19 +2504,19 @@
         <v>188649</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>166354</v>
+        <v>163809</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>220157</v>
+        <v>218186</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08032912259344151</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07083569750895219</v>
+        <v>0.0697518082493831</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09374564279069238</v>
+        <v>0.0929063831753089</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>99167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81063</v>
+        <v>79352</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>121341</v>
+        <v>119809</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0702842266069142</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05745301085602771</v>
+        <v>0.05624087130972977</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08600002957834998</v>
+        <v>0.0849143102156393</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>61</v>
@@ -2554,19 +2554,19 @@
         <v>68247</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54010</v>
+        <v>52017</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>88246</v>
+        <v>85538</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07279570057253092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05760980716384189</v>
+        <v>0.05548357300067637</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09412778776578273</v>
+        <v>0.0912398443259604</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>153</v>
@@ -2575,19 +2575,19 @@
         <v>167413</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>141046</v>
+        <v>141337</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>194613</v>
+        <v>197075</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07128681934045536</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06005920636695736</v>
+        <v>0.06018301111485837</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08286867849163605</v>
+        <v>0.08391691947186557</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>295209</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>266044</v>
+        <v>262375</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>328350</v>
+        <v>326027</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.209228841909186</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1885587373122231</v>
+        <v>0.1859577376081825</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2327179043119487</v>
+        <v>0.2310716042632271</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>177</v>
@@ -2625,19 +2625,19 @@
         <v>196235</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>170986</v>
+        <v>170877</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>222420</v>
+        <v>225505</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2093147349638375</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1823823993150804</v>
+        <v>0.1822669762962784</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2372446876588153</v>
+        <v>0.2405357418768606</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>457</v>
@@ -2646,19 +2646,19 @@
         <v>491444</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>448665</v>
+        <v>451706</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>530664</v>
+        <v>534540</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2092631308381712</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1910475539283355</v>
+        <v>0.1923422309935452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2259635499582369</v>
+        <v>0.2276141677438585</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>356282</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>325403</v>
+        <v>325154</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>393927</v>
+        <v>392313</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2525144692161989</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2306290551374445</v>
+        <v>0.2304525111875575</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2791954424623125</v>
+        <v>0.2780511046509065</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>198</v>
@@ -2696,19 +2696,19 @@
         <v>208918</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>185359</v>
+        <v>185246</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>235624</v>
+        <v>237519</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2228435255668512</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1977139595461107</v>
+        <v>0.1975936084823051</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2513292966919356</v>
+        <v>0.2533504931916201</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>537</v>
@@ -2717,19 +2717,19 @@
         <v>565200</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>524972</v>
+        <v>521424</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>613504</v>
+        <v>608172</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2406696828845833</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2235400721634405</v>
+        <v>0.222029104685677</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2612380574133698</v>
+        <v>0.258967307113166</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>562677</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>522823</v>
+        <v>527060</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>601066</v>
+        <v>602154</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.398796944515966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3705499123378457</v>
+        <v>0.3735534481658002</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.426004967175653</v>
+        <v>0.4267761434333499</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>344</v>
@@ -2767,19 +2767,19 @@
         <v>373065</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>341243</v>
+        <v>343822</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>404742</v>
+        <v>403127</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3979309727665287</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3639878851496584</v>
+        <v>0.3667383552326129</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4317191839324682</v>
+        <v>0.4299969843769368</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>870</v>
@@ -2788,19 +2788,19 @@
         <v>935742</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>888595</v>
+        <v>888394</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>985590</v>
+        <v>984407</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3984512443433486</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3783754193276769</v>
+        <v>0.3782895566944692</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4196770029050899</v>
+        <v>0.4191732024818551</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>25402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16937</v>
+        <v>16424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37431</v>
+        <v>37299</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1052624219068594</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07018376220418858</v>
+        <v>0.06805756203801282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1551101429423898</v>
+        <v>0.1545624846624307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3153,19 +3153,19 @@
         <v>23884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15477</v>
+        <v>16057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33137</v>
+        <v>33757</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1454294869769558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09423853574645892</v>
+        <v>0.09777288198928488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2017710865842116</v>
+        <v>0.2055444896718683</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -3174,19 +3174,19 @@
         <v>49286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36984</v>
+        <v>37620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63853</v>
+        <v>64115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1215284348948808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09119316668519938</v>
+        <v>0.0927614999023737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1574455945318182</v>
+        <v>0.1580928606380988</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>33797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24203</v>
+        <v>24868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46058</v>
+        <v>45324</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1400519360377231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1002922792684994</v>
+        <v>0.1030495542969548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1908592926094864</v>
+        <v>0.1878153368334982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -3224,19 +3224,19 @@
         <v>19997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13006</v>
+        <v>12665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29583</v>
+        <v>29792</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1217601581966675</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07919291764932462</v>
+        <v>0.07711491091705042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1801316599607114</v>
+        <v>0.1813994674561214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -3245,19 +3245,19 @@
         <v>53794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39696</v>
+        <v>40882</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67907</v>
+        <v>66871</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1326445166652253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09788052366557604</v>
+        <v>0.1008058012854211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1674439677643277</v>
+        <v>0.16488852795506</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>60655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48464</v>
+        <v>47776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75087</v>
+        <v>75336</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2513450406555423</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2008287247190629</v>
+        <v>0.1979764733295117</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3111507356083536</v>
+        <v>0.3121823927681777</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -3295,19 +3295,19 @@
         <v>32062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22606</v>
+        <v>23013</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41670</v>
+        <v>42094</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.195221745815342</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1376438023790708</v>
+        <v>0.1401247003063473</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2537286511906907</v>
+        <v>0.2563060274426317</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>94</v>
@@ -3316,19 +3316,19 @@
         <v>92716</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77162</v>
+        <v>77841</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>110745</v>
+        <v>109973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2286174094181559</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1902639221649</v>
+        <v>0.1919377652803265</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2730719548964408</v>
+        <v>0.2711686922390958</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>50428</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38386</v>
+        <v>37987</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63792</v>
+        <v>63219</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2089664935736878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1590641493927849</v>
+        <v>0.1574138160663931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2643455997706601</v>
+        <v>0.2619702791261443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3366,19 +3366,19 @@
         <v>51379</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39508</v>
+        <v>39728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64116</v>
+        <v>63602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3128458797733044</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2405618988539114</v>
+        <v>0.2419036985188062</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3903965254160466</v>
+        <v>0.3872679270536528</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -3387,19 +3387,19 @@
         <v>101807</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85229</v>
+        <v>85106</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120461</v>
+        <v>118353</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2510333820098213</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.21015521821842</v>
+        <v>0.2098529271899895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2970278939929281</v>
+        <v>0.2918315106528478</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>71039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>57377</v>
+        <v>58383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>86081</v>
+        <v>86935</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2943741078261874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2377611688288516</v>
+        <v>0.2419302953113463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.356705819696165</v>
+        <v>0.36024586803828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -3437,19 +3437,19 @@
         <v>36910</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27220</v>
+        <v>28228</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48284</v>
+        <v>48433</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2247427292377303</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.165742072757931</v>
+        <v>0.171881509674599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.293998958935168</v>
+        <v>0.2949073523673589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>103</v>
@@ -3458,19 +3458,19 @@
         <v>107949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>90310</v>
+        <v>90606</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>127141</v>
+        <v>127259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2661762570119167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2226841366227481</v>
+        <v>0.2234136016438333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3135002956024289</v>
+        <v>0.3137901302586679</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>44189</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31670</v>
+        <v>32582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58803</v>
+        <v>57434</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1069308808252623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07663712503185874</v>
+        <v>0.0788435011066683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1422942173293208</v>
+        <v>0.1389823346762073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -3583,19 +3583,19 @@
         <v>28783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19435</v>
+        <v>20185</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41675</v>
+        <v>40514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1055290533318284</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07125674433630694</v>
+        <v>0.07400513971895199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1527967792566242</v>
+        <v>0.1485388084779437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -3604,19 +3604,19 @@
         <v>72972</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58042</v>
+        <v>56447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91099</v>
+        <v>89519</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1063735168223784</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08460902587291179</v>
+        <v>0.08228436907324557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1327985091992903</v>
+        <v>0.1304940728180254</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>57378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43887</v>
+        <v>43512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75327</v>
+        <v>73000</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1388462984524386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1061995595484112</v>
+        <v>0.1052928850311319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1822801902366586</v>
+        <v>0.1766501338635084</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -3654,19 +3654,19 @@
         <v>44849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34051</v>
+        <v>33527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57712</v>
+        <v>59537</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1644311778819607</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1248419593041353</v>
+        <v>0.122920131432355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2115909742192522</v>
+        <v>0.2182850707906639</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -3675,19 +3675,19 @@
         <v>102226</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85072</v>
+        <v>83725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>122482</v>
+        <v>122068</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1490187989055499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1240127013909238</v>
+        <v>0.1220491276312995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1785453346801244</v>
+        <v>0.1779420547908538</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>95353</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77825</v>
+        <v>78181</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112931</v>
+        <v>113266</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2307424790337382</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1883253484760535</v>
+        <v>0.1891878963193762</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2732789686081159</v>
+        <v>0.2740891598273602</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -3725,19 +3725,19 @@
         <v>64082</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51709</v>
+        <v>51030</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79353</v>
+        <v>78557</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2349468448911908</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1895814090305837</v>
+        <v>0.1870928794155476</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2909370730815088</v>
+        <v>0.2880185945255721</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>150</v>
@@ -3746,19 +3746,19 @@
         <v>159435</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>138668</v>
+        <v>136440</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>183951</v>
+        <v>182953</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2324141270752229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2021413426854698</v>
+        <v>0.1988925810746076</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2681510736368229</v>
+        <v>0.2666963608673552</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>96674</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79799</v>
+        <v>78810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114746</v>
+        <v>113983</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2339371755160824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1931024548423527</v>
+        <v>0.1907105603062501</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.277671035134085</v>
+        <v>0.2758233685068224</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3796,19 +3796,19 @@
         <v>54825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42665</v>
+        <v>42625</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69518</v>
+        <v>68770</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2010088906506661</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1564242951465438</v>
+        <v>0.1562790179208207</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.254878285916526</v>
+        <v>0.2521333687582786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -3817,19 +3817,19 @@
         <v>151499</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129333</v>
+        <v>129936</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174414</v>
+        <v>175126</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2208449507261889</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1885325195625016</v>
+        <v>0.1894118061022855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2542491478799624</v>
+        <v>0.2552865726714694</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>119653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101369</v>
+        <v>101787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141528</v>
+        <v>140146</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2895431661724785</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2452995480386117</v>
+        <v>0.2463105813050416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3424794834716341</v>
+        <v>0.3391351301445468</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -3867,19 +3867,19 @@
         <v>80212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64933</v>
+        <v>65562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>96363</v>
+        <v>96083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.294084033244354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2380660260576637</v>
+        <v>0.2403716452839071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3533019674842657</v>
+        <v>0.3522728635999074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>182</v>
@@ -3888,19 +3888,19 @@
         <v>199864</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>173604</v>
+        <v>176468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>223463</v>
+        <v>226221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.29134860647066</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2530685018900848</v>
+        <v>0.2572435683480686</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3257490561531203</v>
+        <v>0.3297690986521326</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>40996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29208</v>
+        <v>29606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55807</v>
+        <v>54426</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1130075700360496</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08051418534118933</v>
+        <v>0.08161197875128738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1538352191046678</v>
+        <v>0.1500291603917832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -4013,19 +4013,19 @@
         <v>24436</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16758</v>
+        <v>16162</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36462</v>
+        <v>35398</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09066281532245664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06217472045812492</v>
+        <v>0.05996540873416014</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1352833629210845</v>
+        <v>0.1313361585334409</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -4034,19 +4034,19 @@
         <v>65432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50918</v>
+        <v>51266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83591</v>
+        <v>83479</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1034828050654161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08052933082139954</v>
+        <v>0.08107956585958052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1322022819320298</v>
+        <v>0.1320251096458041</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>53482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40597</v>
+        <v>40358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69148</v>
+        <v>68372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1474272656890487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1119096068868499</v>
+        <v>0.1112501196916965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1906116437041468</v>
+        <v>0.1884721782451712</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -4084,19 +4084,19 @@
         <v>50343</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38171</v>
+        <v>38565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63620</v>
+        <v>64044</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1867841774198888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1416235999292449</v>
+        <v>0.1430866350803928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2360470299513168</v>
+        <v>0.2376175614143504</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -4105,19 +4105,19 @@
         <v>103825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85679</v>
+        <v>84276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123229</v>
+        <v>123275</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1642037010991085</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1355056813919136</v>
+        <v>0.1332867597192041</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1948918082805884</v>
+        <v>0.1949639026297893</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>114894</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95780</v>
+        <v>96133</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133675</v>
+        <v>132895</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3167142542966931</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2640232826659576</v>
+        <v>0.2649966090310939</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3684829354051474</v>
+        <v>0.3663342575843683</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>91</v>
@@ -4155,19 +4155,19 @@
         <v>92162</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78212</v>
+        <v>77172</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109172</v>
+        <v>108567</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3419417323398922</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2901864628940402</v>
+        <v>0.2863284074732435</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4050536780957459</v>
+        <v>0.4028095483192035</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>191</v>
@@ -4176,19 +4176,19 @@
         <v>207056</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>180057</v>
+        <v>184124</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>230148</v>
+        <v>232716</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3274678205024172</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2847674082968122</v>
+        <v>0.2912003147240802</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3639893850121425</v>
+        <v>0.3680505339155313</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>73885</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58262</v>
+        <v>59041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88863</v>
+        <v>91248</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.203670087023755</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1606044513936115</v>
+        <v>0.1627497290702455</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2449558944123295</v>
+        <v>0.2515319515120237</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -4226,19 +4226,19 @@
         <v>43305</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32112</v>
+        <v>32232</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57081</v>
+        <v>55310</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1606719813548363</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1191426135256691</v>
+        <v>0.1195896911310035</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2117857134181185</v>
+        <v>0.2052120332383064</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>112</v>
@@ -4247,19 +4247,19 @@
         <v>117190</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98367</v>
+        <v>98801</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>139008</v>
+        <v>138411</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1853415416479682</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1555717705313892</v>
+        <v>0.1562582424825377</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2198474827468812</v>
+        <v>0.2189026781421398</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>79512</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62897</v>
+        <v>64024</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96141</v>
+        <v>96178</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2191808229544536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1733785914627563</v>
+        <v>0.1764851706377203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2650198602832629</v>
+        <v>0.2651206048938163</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -4297,19 +4297,19 @@
         <v>59279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45187</v>
+        <v>46914</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72573</v>
+        <v>74763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.219939293562926</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1676551664386425</v>
+        <v>0.174063974024093</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2692625660000343</v>
+        <v>0.2773893368309008</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>130</v>
@@ -4318,19 +4318,19 @@
         <v>138791</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>118464</v>
+        <v>118213</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>160874</v>
+        <v>160546</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2195041316850899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1873559219753694</v>
+        <v>0.1869592150190121</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.254429218313721</v>
+        <v>0.2539110695352758</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>43554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32884</v>
+        <v>31003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57282</v>
+        <v>57170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1091578717975016</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08241476000091792</v>
+        <v>0.07770092366219138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1435637919858545</v>
+        <v>0.1432836020152151</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -4443,19 +4443,19 @@
         <v>31869</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22233</v>
+        <v>22971</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45310</v>
+        <v>46230</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09791475617895211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06830971330782966</v>
+        <v>0.07057816324254486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1392127558469597</v>
+        <v>0.1420383144145631</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -4464,19 +4464,19 @@
         <v>75423</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60314</v>
+        <v>59644</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93942</v>
+        <v>92437</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1041068422271455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08325232444252352</v>
+        <v>0.08232700515845574</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.129668960859008</v>
+        <v>0.1275912064381597</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>42782</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31405</v>
+        <v>32546</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>56902</v>
+        <v>57027</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1072237362167026</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07870993631105118</v>
+        <v>0.08156924505111529</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1426110858540672</v>
+        <v>0.1429248356772991</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -4514,19 +4514,19 @@
         <v>35215</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24516</v>
+        <v>25140</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47792</v>
+        <v>48020</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1081950401934234</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0753244246803294</v>
+        <v>0.0772403629798344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1468382281095424</v>
+        <v>0.1475391009086337</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>75</v>
@@ -4535,19 +4535,19 @@
         <v>77997</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>61234</v>
+        <v>62766</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>97999</v>
+        <v>95988</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.107660099701227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08452161028540585</v>
+        <v>0.08663709590096479</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1352692771292256</v>
+        <v>0.1324938264497293</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>105292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>89914</v>
+        <v>88929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>124474</v>
+        <v>122605</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2638890818712312</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2253467207885695</v>
+        <v>0.2228800842021043</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3119650039357843</v>
+        <v>0.3072803877676361</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>74</v>
@@ -4585,19 +4585,19 @@
         <v>75202</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60562</v>
+        <v>60325</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>91000</v>
+        <v>90125</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2310541843254367</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.186073114853074</v>
+        <v>0.185346103636078</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2795911159096365</v>
+        <v>0.2769041887922248</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>179</v>
@@ -4606,19 +4606,19 @@
         <v>180494</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>158994</v>
+        <v>158158</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>205538</v>
+        <v>205331</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2491378292762839</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2194607976583236</v>
+        <v>0.2183067198101352</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2837068082583462</v>
+        <v>0.2834210005233549</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>97295</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81716</v>
+        <v>80917</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>116287</v>
+        <v>115956</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2438458162533712</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2048017907451637</v>
+        <v>0.2027978399407309</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.291444582246709</v>
+        <v>0.2906151157760375</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -4656,19 +4656,19 @@
         <v>86572</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70366</v>
+        <v>70730</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103624</v>
+        <v>104743</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2659887441757523</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2161959079112613</v>
+        <v>0.2173131392421085</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3183776972501887</v>
+        <v>0.3218154774760666</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>177</v>
@@ -4677,19 +4677,19 @@
         <v>183867</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>162084</v>
+        <v>159599</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210842</v>
+        <v>206276</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2537936445515774</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.223725858397793</v>
+        <v>0.2202953889367336</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2910268238767736</v>
+        <v>0.2847254431180771</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>110078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94223</v>
+        <v>93659</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>128551</v>
+        <v>127904</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2758834938611935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2361471121113471</v>
+        <v>0.2347343378196212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3221832047608572</v>
+        <v>0.3205596939243999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -4727,19 +4727,19 @@
         <v>96616</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>81290</v>
+        <v>80321</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114145</v>
+        <v>115015</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2968472751264354</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2497587751643793</v>
+        <v>0.2467807235096751</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3507046181979281</v>
+        <v>0.3533779151764602</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>195</v>
@@ -4748,19 +4748,19 @@
         <v>206694</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>182802</v>
+        <v>184013</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>232571</v>
+        <v>233131</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2853015842437663</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2523235440842331</v>
+        <v>0.2539946462596926</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3210198822167089</v>
+        <v>0.3217931135143803</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>154141</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>132606</v>
+        <v>131418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>183585</v>
+        <v>180371</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1088304120120938</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09362584326243198</v>
+        <v>0.09278723232134116</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1296197244721854</v>
+        <v>0.1273503316790859</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>106</v>
@@ -4873,19 +4873,19 @@
         <v>108972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>89790</v>
+        <v>90212</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>128937</v>
+        <v>129717</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.105594824457821</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08700777897429646</v>
+        <v>0.08741579178983659</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1249409537926773</v>
+        <v>0.1256969947758013</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>245</v>
@@ -4894,19 +4894,19 @@
         <v>263112</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>235740</v>
+        <v>232864</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>295930</v>
+        <v>297038</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1074665914645564</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09628633301966165</v>
+        <v>0.09511179173618828</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1208706326132028</v>
+        <v>0.1213233584876763</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>187440</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>162473</v>
+        <v>164045</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>213958</v>
+        <v>215845</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1323410908997001</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1147135438133904</v>
+        <v>0.1158235043445558</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1510644810031217</v>
+        <v>0.1523968626323303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>146</v>
@@ -4944,19 +4944,19 @@
         <v>150403</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129074</v>
+        <v>128681</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>173960</v>
+        <v>172781</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1457421805258227</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.12507391893179</v>
+        <v>0.1246932841351073</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1685684116660814</v>
+        <v>0.1674261290072379</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>322</v>
@@ -4965,19 +4965,19 @@
         <v>337843</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>300569</v>
+        <v>303739</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>370628</v>
+        <v>374329</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1379897346421204</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1227656164785353</v>
+        <v>0.1240602442049303</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1513808479443981</v>
+        <v>0.1528923212920039</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>376194</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>343175</v>
+        <v>339247</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>411465</v>
+        <v>409605</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2656108068256843</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2422975032315735</v>
+        <v>0.2395241136735314</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2905136391910464</v>
+        <v>0.2892002725979134</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>265</v>
@@ -5015,19 +5015,19 @@
         <v>263508</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>234422</v>
+        <v>236336</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>290649</v>
+        <v>292541</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2553411920075158</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2271569085661746</v>
+        <v>0.2290117217858581</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2816419972798185</v>
+        <v>0.2834752159685342</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>614</v>
@@ -5036,19 +5036,19 @@
         <v>639702</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>598629</v>
+        <v>596178</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>684391</v>
+        <v>683755</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2612820994520214</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2445063804197105</v>
+        <v>0.2435050891576236</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2795350612920292</v>
+        <v>0.2792753170905971</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>318282</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>287948</v>
+        <v>285815</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>353637</v>
+        <v>350662</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2247215924602891</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2033044854961984</v>
+        <v>0.2017985199363606</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2496840959207292</v>
+        <v>0.2475834521178328</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>232</v>
@@ -5086,19 +5086,19 @@
         <v>236082</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>209510</v>
+        <v>209961</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>263645</v>
+        <v>265944</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2287659228403153</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2030172520335007</v>
+        <v>0.2034543893111097</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2554745477136336</v>
+        <v>0.2577025713233896</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>534</v>
@@ -5107,19 +5107,19 @@
         <v>554364</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>511123</v>
+        <v>514655</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>595071</v>
+        <v>592632</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2264263032062633</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2087650312007683</v>
+        <v>0.2102076579237979</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2430529379020522</v>
+        <v>0.2420565929417454</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>380281</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>347524</v>
+        <v>346493</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>414552</v>
+        <v>415568</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2684960978022327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2453679884584729</v>
+        <v>0.2446405123344159</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2926933086811782</v>
+        <v>0.2934106206439059</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>259</v>
@@ -5157,19 +5157,19 @@
         <v>273017</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>242142</v>
+        <v>244427</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>301515</v>
+        <v>301595</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2645558801685252</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2346375391886334</v>
+        <v>0.2368518353438034</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2921706797034234</v>
+        <v>0.2922483788985625</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>610</v>
@@ -5178,19 +5178,19 @@
         <v>653298</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>607641</v>
+        <v>610796</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>699598</v>
+        <v>699787</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2668352712350384</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2481870635463318</v>
+        <v>0.2494758763650544</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2857463287046392</v>
+        <v>0.2858237651223718</v>
       </c>
     </row>
     <row r="33">
